--- a/testData/OpenCartTestData.xlsx
+++ b/testData/OpenCartTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2C7CE7-0D4E-4FDF-BEE7-A42F2AD5F5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2792D7-C35C-4FBC-98CC-6DA1FE777865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>password</t>
   </si>
@@ -63,9 +64,6 @@
     <t>action</t>
   </si>
   <si>
-    <t>expected_result</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -91,6 +89,27 @@
   </si>
   <si>
     <t>account_login_navigating</t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>privacyPolicy</t>
+  </si>
+  <si>
+    <t>account_registration_email_exists</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>account_registration_success</t>
   </si>
 </sst>
 </file>
@@ -500,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,18 +536,18 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -542,7 +561,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -556,7 +575,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -570,7 +589,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -584,13 +603,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -598,7 +617,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -612,7 +631,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -626,21 +645,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -664,4 +683,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBC8F54-CCC1-4838-94C4-9EEEF6AB7C08}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/OpenCartTestData.xlsx
+++ b/testData/OpenCartTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2792D7-C35C-4FBC-98CC-6DA1FE777865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB3DEC0-6474-4408-B573-CF499219D609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -103,13 +103,22 @@
     <t>privacyPolicy</t>
   </si>
   <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>account_registration_all_fields_warning_validation</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>account_registration_success</t>
+  </si>
+  <si>
     <t>account_registration_email_exists</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>account_registration_success</t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -687,15 +696,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBC8F54-CCC1-4838-94C4-9EEEF6AB7C08}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -726,33 +735,58 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData/OpenCartTestData.xlsx
+++ b/testData/OpenCartTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB3DEC0-6474-4408-B573-CF499219D609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6D1ACC-B680-4372-9367-400149E1B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>password</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>account_registration_email_exists</t>
+  </si>
+  <si>
+    <t>navigating_to_registered_page_from_different_page</t>
+  </si>
+  <si>
+    <t>account_registration_email_field_warning_validation</t>
+  </si>
+  <si>
+    <t>abhishek@gmail</t>
+  </si>
+  <si>
+    <t>account_fields_placeholder_validation</t>
   </si>
 </sst>
 </file>
@@ -199,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -211,6 +223,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -696,15 +709,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBC8F54-CCC1-4838-94C4-9EEEF6AB7C08}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -788,7 +801,31 @@
       </c>
       <c r="F4" s="3"/>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{5AB4D3A8-73B0-4481-86D2-1374C8FB0EDA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/OpenCartTestData.xlsx
+++ b/testData/OpenCartTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6D1ACC-B680-4372-9367-400149E1B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724967D0-1BDF-4704-B02D-8B4F28AD9D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>password</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>account_fields_placeholder_validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>account_registration_password_field_warning_validation</t>
+  </si>
+  <si>
+    <t>account_registration_privacy_policy_warning_validation</t>
   </si>
 </sst>
 </file>
@@ -709,15 +718,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBC8F54-CCC1-4838-94C4-9EEEF6AB7C08}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -803,28 +812,62 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>123</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{5AB4D3A8-73B0-4481-86D2-1374C8FB0EDA}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{5AB4D3A8-73B0-4481-86D2-1374C8FB0EDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/OpenCartTestData.xlsx
+++ b/testData/OpenCartTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724967D0-1BDF-4704-B02D-8B4F28AD9D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6846D93-C7AC-4D91-9C69-C2716FDDD254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>password</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>account_registration_privacy_policy_warning_validation</t>
+  </si>
+  <si>
+    <t>account_registration_field_trailing_spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  TrailingLastName                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  TrailingFirstName                      </t>
   </si>
 </sst>
 </file>
@@ -718,17 +727,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBC8F54-CCC1-4838-94C4-9EEEF6AB7C08}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.88671875" bestFit="1" customWidth="1"/>
@@ -865,6 +874,20 @@
         <v>34</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{5AB4D3A8-73B0-4481-86D2-1374C8FB0EDA}"/>

--- a/testData/OpenCartTestData.xlsx
+++ b/testData/OpenCartTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6846D93-C7AC-4D91-9C69-C2716FDDD254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C4E9AC-1C81-4686-A37E-C44F8B88D034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="2" r:id="rId2"/>
+    <sheet name="Logout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>password</t>
   </si>
@@ -149,6 +150,24 @@
   </si>
   <si>
     <t xml:space="preserve">                  TrailingFirstName                      </t>
+  </si>
+  <si>
+    <t>account_logout</t>
+  </si>
+  <si>
+    <t>account_logout_from_right_column</t>
+  </si>
+  <si>
+    <t>account_logout_browser_back</t>
+  </si>
+  <si>
+    <t>account_check_logout_btn_exists</t>
+  </si>
+  <si>
+    <t>account_check_logout_right_column_btn_exists</t>
+  </si>
+  <si>
+    <t>account_login_two_times</t>
   </si>
 </sst>
 </file>
@@ -729,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBC8F54-CCC1-4838-94C4-9EEEF6AB7C08}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -894,4 +913,57 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037037A-C83F-434B-B1A9-9CD3AF3E43F0}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/OpenCartTestData.xlsx
+++ b/testData/OpenCartTestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C4E9AC-1C81-4686-A37E-C44F8B88D034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D229A6B-8FF1-43F7-BD59-452397E8BCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="2" r:id="rId2"/>
     <sheet name="Logout" sheetId="3" r:id="rId3"/>
+    <sheet name="Search" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>password</t>
   </si>
@@ -168,6 +169,66 @@
   </si>
   <si>
     <t>account_login_two_times</t>
+  </si>
+  <si>
+    <t>searched_text</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>productnotexists</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>imac</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>iMac</t>
+  </si>
+  <si>
+    <t>category_value</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>search_product_by_category_no_product_found</t>
+  </si>
+  <si>
+    <t>search_product_by_category_product_found</t>
+  </si>
+  <si>
+    <t>searched_product_text_validation</t>
+  </si>
+  <si>
+    <t>no_product_found</t>
+  </si>
+  <si>
+    <t>multiple_product_found</t>
+  </si>
+  <si>
+    <t>searched_product_after_login</t>
+  </si>
+  <si>
+    <t>search_product_under_search_criteria</t>
+  </si>
+  <si>
+    <t>search_product_check_sub_category</t>
+  </si>
+  <si>
+    <t>product_compare_navigation_check</t>
+  </si>
+  <si>
+    <t>HTC Touch HD</t>
   </si>
 </sst>
 </file>
@@ -248,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -261,6 +322,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -749,7 +811,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037037A-C83F-434B-B1A9-9CD3AF3E43F0}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -966,4 +1028,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC5EBCD-FE71-48CA-906D-84B7BB7B5CE4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/OpenCartTestData.xlsx
+++ b/testData/OpenCartTestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D229A6B-8FF1-43F7-BD59-452397E8BCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60BD545-F2F1-4CCD-B4FE-EBCE1C88BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="2" r:id="rId2"/>
     <sheet name="Logout" sheetId="3" r:id="rId3"/>
     <sheet name="Search" sheetId="4" r:id="rId4"/>
+    <sheet name="ProductDisplayPage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t>password</t>
   </si>
@@ -229,12 +230,90 @@
   </si>
   <si>
     <t>HTC Touch HD</t>
+  </si>
+  <si>
+    <t>product_details_verification</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_brand</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Product Code: Product 14</t>
+  </si>
+  <si>
+    <t>product_availability_verification</t>
+  </si>
+  <si>
+    <t>product_availability</t>
+  </si>
+  <si>
+    <t>Availability: In Stock</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab 10.1</t>
+  </si>
+  <si>
+    <t>Availability: Pre-Order</t>
+  </si>
+  <si>
+    <t>product_price_verification</t>
+  </si>
+  <si>
+    <t>iPod Touch</t>
+  </si>
+  <si>
+    <t>Ex Tax: $100.00</t>
+  </si>
+  <si>
+    <t>product_price</t>
+  </si>
+  <si>
+    <t>product_price_ex_tax</t>
+  </si>
+  <si>
+    <t>iPod Classic</t>
+  </si>
+  <si>
+    <t>product_quantity_text_verification</t>
+  </si>
+  <si>
+    <t>quantity_text</t>
+  </si>
+  <si>
+    <t>Apple Cinema 30"</t>
+  </si>
+  <si>
+    <t>product_add_to_cart</t>
+  </si>
+  <si>
+    <t>Samsung SyncMaster 941BW</t>
+  </si>
+  <si>
+    <t>Success: You have added Samsung SyncMaster 941BW to your shopping cart!</t>
+  </si>
+  <si>
+    <t>product_minimum_quantity_text_verification</t>
+  </si>
+  <si>
+    <t>This product has a minimum quantity of 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -323,6 +402,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1034,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC5EBCD-FE71-48CA-906D-84B7BB7B5CE4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,4 +1243,229 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9898F04E-EAAA-4D37-AF6D-51060956A47C}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="7">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="7">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testData/OpenCartTestData.xlsx
+++ b/testData/OpenCartTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60BD545-F2F1-4CCD-B4FE-EBCE1C88BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDCAE99-B185-4E02-A8FC-957DCDA0FFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
   <si>
     <t>password</t>
   </si>
@@ -305,6 +305,27 @@
   </si>
   <si>
     <t>This product has a minimum quantity of 2</t>
+  </si>
+  <si>
+    <t>no_review_text_verification</t>
+  </si>
+  <si>
+    <t>Palm Treo Pro</t>
+  </si>
+  <si>
+    <t>There are no reviews for this product.</t>
+  </si>
+  <si>
+    <t>review_tab_focus_verification</t>
+  </si>
+  <si>
+    <t>Success: You have added iMac to your wish list!</t>
+  </si>
+  <si>
+    <t>product_add_to_wishlist</t>
+  </si>
+  <si>
+    <t>verfiy_product_added_to_wishlist</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9898F04E-EAAA-4D37-AF6D-51060956A47C}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1464,6 +1485,44 @@
         <v>88</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/testData/OpenCartTestData.xlsx
+++ b/testData/OpenCartTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDCAE99-B185-4E02-A8FC-957DCDA0FFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CF7877-32D6-4C45-8206-AB058B407F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
   <si>
     <t>password</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>verfiy_product_added_to_wishlist</t>
+  </si>
+  <si>
+    <t>compare_product_success_verification</t>
+  </si>
+  <si>
+    <t>Success: You have added iMac to your product comparison!</t>
   </si>
 </sst>
 </file>
@@ -1268,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9898F04E-EAAA-4D37-AF6D-51060956A47C}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1523,6 +1529,17 @@
         <v>85</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
